--- a/tietokanta/feats/excel/feats_ancestry.xlsx
+++ b/tietokanta/feats/excel/feats_ancestry.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riku\Koulu\Ohjelmointyo\tietokanta\feats\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riku\Koulu\Ohjelmointyo\tietokanta\feats\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3B8133A3-08DA-4ECF-AF1E-81D9C93C2B2C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E2D7739-1488-451B-8CBC-3C3C221B2D05}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4755" yWindow="1140" windowWidth="19665" windowHeight="12780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Taul1" sheetId="1" r:id="rId1"/>
@@ -37,11 +37,14 @@
   <connection id="1" xr16:uid="{3D343F52-6CAB-437E-B91A-802F25444CFE}" name="feats_ancestry_schema" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="D:\Riku\Koulu\Ohjelmointyo\tietokanta\feats\feats_ancestry_schema.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
+  <connection id="2" xr16:uid="{8F026118-554E-4A1C-A0D5-61FA5F6CE32F}" name="feats_ancestry_schema1" type="4" refreshedVersion="0" background="1">
+    <webPr xml="1" sourceData="1" url="D:\Riku\Koulu\Ohjelmointyo\tietokanta\schemas\feats_ancestry_schema.xml" htmlTables="1" htmlFormat="all"/>
+  </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="137">
   <si>
     <t>Name</t>
   </si>
@@ -449,6 +452,9 @@
   </si>
   <si>
     <t>Adaptive Cantrip</t>
+  </si>
+  <si>
+    <t>none</t>
   </si>
 </sst>
 </file>
@@ -506,19 +512,19 @@
 
 <file path=xl/xmlMaps.xml><?xml version="1.0" encoding="utf-8"?>
 <MapInfo xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" SelectionNamespaces="">
-  <Schema ID="Schema1">
+  <Schema ID="Schema2">
     <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns="">
       <xsd:element nillable="true" name="AncestryFeats">
         <xsd:complexType>
           <xsd:sequence minOccurs="0">
-            <xsd:element minOccurs="0" maxOccurs="unbounded" nillable="true" name="AncestryFeat" form="unqualified">
+            <xsd:element minOccurs="0" maxOccurs="unbounded" nillable="true" name="ancestryFeat" form="unqualified">
               <xsd:complexType>
                 <xsd:sequence minOccurs="0">
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="AncestryFeatName" form="unqualified"/>
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Ancestry" form="unqualified"/>
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Level" form="unqualified"/>
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Prerequisite" form="unqualified"/>
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Benefit" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="ancFeatName" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="ancestry" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="level" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="prerequisite" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="description" form="unqualified"/>
                 </xsd:sequence>
               </xsd:complexType>
             </xsd:element>
@@ -527,30 +533,30 @@
       </xsd:element>
     </xsd:schema>
   </Schema>
-  <Map ID="1" Name="AncestryFeats-määritys" RootElement="AncestryFeats" SchemaID="Schema1" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
-    <DataBinding FileBinding="true" ConnectionID="1" DataBindingLoadMode="1"/>
+  <Map ID="2" Name="AncestryFeats-määritys" RootElement="AncestryFeats" SchemaID="Schema2" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
+    <DataBinding FileBinding="true" ConnectionID="2" DataBindingLoadMode="1"/>
   </Map>
 </MapInfo>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4C0A6094-D5B7-4647-BAF3-350A1F6C4DA9}" name="Taulukko1" displayName="Taulukko1" ref="A1:E120" tableType="xml" totalsRowShown="0" connectionId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4C0A6094-D5B7-4647-BAF3-350A1F6C4DA9}" name="Taulukko1" displayName="Taulukko1" ref="A1:E120" tableType="xml" totalsRowShown="0" connectionId="2">
   <autoFilter ref="A1:E120" xr:uid="{55C88AAB-63A4-49AD-8B25-A7CBD035D499}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{90020DF2-64FF-460E-A4E1-72217F3DED30}" uniqueName="AncestryFeatName" name="Name">
-      <xmlColumnPr mapId="1" xpath="/AncestryFeats/AncestryFeat/AncestryFeatName" xmlDataType="string"/>
+    <tableColumn id="1" xr3:uid="{90020DF2-64FF-460E-A4E1-72217F3DED30}" uniqueName="ancFeatName" name="Name">
+      <xmlColumnPr mapId="2" xpath="/AncestryFeats/ancestryFeat/ancFeatName" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{6679C0D0-16E4-4D65-81CF-FF7BBCB64647}" uniqueName="Ancestry" name="Ancestry">
-      <xmlColumnPr mapId="1" xpath="/AncestryFeats/AncestryFeat/Ancestry" xmlDataType="string"/>
+    <tableColumn id="2" xr3:uid="{6679C0D0-16E4-4D65-81CF-FF7BBCB64647}" uniqueName="ancestry" name="Ancestry">
+      <xmlColumnPr mapId="2" xpath="/AncestryFeats/ancestryFeat/ancestry" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{EF9FE192-1F2C-4DD6-A5D6-1BBD58EA67D7}" uniqueName="Level" name="Level">
-      <xmlColumnPr mapId="1" xpath="/AncestryFeats/AncestryFeat/Level" xmlDataType="string"/>
+    <tableColumn id="3" xr3:uid="{EF9FE192-1F2C-4DD6-A5D6-1BBD58EA67D7}" uniqueName="level" name="Level">
+      <xmlColumnPr mapId="2" xpath="/AncestryFeats/ancestryFeat/level" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{9C9D9B7B-26EC-4C60-9C44-B03AF179844A}" uniqueName="Prerequisite" name="Requirement">
-      <xmlColumnPr mapId="1" xpath="/AncestryFeats/AncestryFeat/Prerequisite" xmlDataType="string"/>
+    <tableColumn id="4" xr3:uid="{9C9D9B7B-26EC-4C60-9C44-B03AF179844A}" uniqueName="prerequisite" name="Requirement">
+      <xmlColumnPr mapId="2" xpath="/AncestryFeats/ancestryFeat/prerequisite" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{20C61ED7-5D0F-4B84-A9F4-C6126E4E34CE}" uniqueName="Benefit" name="Description">
-      <xmlColumnPr mapId="1" xpath="/AncestryFeats/AncestryFeat/Benefit" xmlDataType="string"/>
+    <tableColumn id="5" xr3:uid="{20C61ED7-5D0F-4B84-A9F4-C6126E4E34CE}" uniqueName="description" name="Description">
+      <xmlColumnPr mapId="2" xpath="/AncestryFeats/ancestryFeat/description" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -823,7 +829,7 @@
   <dimension ref="A1:E120"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -859,8 +865,12 @@
       <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
+      <c r="D2" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -872,8 +882,12 @@
       <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
+      <c r="D3" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -885,8 +899,12 @@
       <c r="C4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
+      <c r="D4" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -898,8 +916,12 @@
       <c r="C5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
+      <c r="D5" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -911,8 +933,12 @@
       <c r="C6" s="1">
         <v>1</v>
       </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -924,8 +950,12 @@
       <c r="C7" s="1">
         <v>1</v>
       </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
@@ -937,8 +967,12 @@
       <c r="C8" s="1">
         <v>1</v>
       </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
+      <c r="D8" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
@@ -950,8 +984,12 @@
       <c r="C9" s="1">
         <v>1</v>
       </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
+      <c r="D9" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -963,8 +1001,12 @@
       <c r="C10" s="1">
         <v>1</v>
       </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
+      <c r="D10" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
@@ -976,8 +1018,12 @@
       <c r="C11" s="1">
         <v>1</v>
       </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
+      <c r="D11" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -992,7 +1038,9 @@
       <c r="D12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="1"/>
+      <c r="E12" s="1" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
@@ -1007,7 +1055,9 @@
       <c r="D13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="1"/>
+      <c r="E13" s="1" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
@@ -1019,8 +1069,12 @@
       <c r="C14" s="1">
         <v>9</v>
       </c>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
+      <c r="D14" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
@@ -1032,8 +1086,12 @@
       <c r="C15" s="1">
         <v>9</v>
       </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
+      <c r="D15" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
@@ -1048,7 +1106,9 @@
       <c r="D16" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E16" s="1"/>
+      <c r="E16" s="1" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
@@ -1060,8 +1120,12 @@
       <c r="C17" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
+      <c r="D17" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
@@ -1073,8 +1137,12 @@
       <c r="C18" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
+      <c r="D18" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
@@ -1086,8 +1154,12 @@
       <c r="C19" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
+      <c r="D19" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
@@ -1099,8 +1171,12 @@
       <c r="C20" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
+      <c r="D20" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
@@ -1112,8 +1188,12 @@
       <c r="C21" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
+      <c r="D21" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
@@ -1125,8 +1205,12 @@
       <c r="C22" s="1">
         <v>1</v>
       </c>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
+      <c r="D22" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
@@ -1138,8 +1222,12 @@
       <c r="C23" s="1">
         <v>1</v>
       </c>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
+      <c r="D23" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
@@ -1151,8 +1239,12 @@
       <c r="C24" s="1">
         <v>1</v>
       </c>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
+      <c r="D24" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
@@ -1164,8 +1256,12 @@
       <c r="C25" s="1">
         <v>1</v>
       </c>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
+      <c r="D25" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
@@ -1177,8 +1273,12 @@
       <c r="C26" s="1">
         <v>1</v>
       </c>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
+      <c r="D26" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
@@ -1190,8 +1290,12 @@
       <c r="C27" s="1">
         <v>1</v>
       </c>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
+      <c r="D27" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
@@ -1203,8 +1307,12 @@
       <c r="C28" s="1">
         <v>1</v>
       </c>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
+      <c r="D28" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
@@ -1216,8 +1324,12 @@
       <c r="C29" s="1">
         <v>5</v>
       </c>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
+      <c r="D29" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
@@ -1232,7 +1344,9 @@
       <c r="D30" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E30" s="1"/>
+      <c r="E30" s="1" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
@@ -1244,8 +1358,12 @@
       <c r="C31" s="1">
         <v>9</v>
       </c>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
+      <c r="D31" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
@@ -1260,7 +1378,9 @@
       <c r="D32" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E32" s="1"/>
+      <c r="E32" s="1" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
@@ -1275,7 +1395,9 @@
       <c r="D33" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E33" s="1"/>
+      <c r="E33" s="1" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
@@ -1290,7 +1412,9 @@
       <c r="D34" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E34" s="1"/>
+      <c r="E34" s="1" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
@@ -1302,8 +1426,12 @@
       <c r="C35" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
+      <c r="D35" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
@@ -1315,8 +1443,12 @@
       <c r="C36" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
+      <c r="D36" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
@@ -1328,8 +1460,12 @@
       <c r="C37" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
+      <c r="D37" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
@@ -1341,8 +1477,12 @@
       <c r="C38" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
+      <c r="D38" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
@@ -1354,8 +1494,12 @@
       <c r="C39" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
+      <c r="D39" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
@@ -1367,8 +1511,12 @@
       <c r="C40" s="1">
         <v>1</v>
       </c>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
+      <c r="D40" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
@@ -1380,8 +1528,12 @@
       <c r="C41" s="1">
         <v>1</v>
       </c>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
+      <c r="D41" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
@@ -1393,8 +1545,12 @@
       <c r="C42" s="1">
         <v>1</v>
       </c>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
+      <c r="D42" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
@@ -1406,8 +1562,12 @@
       <c r="C43" s="1">
         <v>1</v>
       </c>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
+      <c r="D43" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
@@ -1419,8 +1579,12 @@
       <c r="C44" s="1">
         <v>1</v>
       </c>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
+      <c r="D44" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
@@ -1432,8 +1596,12 @@
       <c r="C45" s="1">
         <v>1</v>
       </c>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
+      <c r="D45" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
@@ -1445,8 +1613,12 @@
       <c r="C46" s="1">
         <v>1</v>
       </c>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
+      <c r="D46" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
@@ -1461,7 +1633,9 @@
       <c r="D47" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E47" s="1"/>
+      <c r="E47" s="1" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
@@ -1473,8 +1647,12 @@
       <c r="C48" s="1">
         <v>5</v>
       </c>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
+      <c r="D48" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
@@ -1489,7 +1667,9 @@
       <c r="D49" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E49" s="1"/>
+      <c r="E49" s="1" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
@@ -1504,7 +1684,9 @@
       <c r="D50" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E50" s="1"/>
+      <c r="E50" s="1" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
@@ -1516,8 +1698,12 @@
       <c r="C51" s="1">
         <v>9</v>
       </c>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
+      <c r="D51" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
@@ -1532,7 +1718,9 @@
       <c r="D52" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E52" s="1"/>
+      <c r="E52" s="1" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
@@ -1544,8 +1732,12 @@
       <c r="C53" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
+      <c r="D53" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
@@ -1557,8 +1749,12 @@
       <c r="C54" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
+      <c r="D54" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
@@ -1570,8 +1766,12 @@
       <c r="C55" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D55" s="1"/>
-      <c r="E55" s="1"/>
+      <c r="D55" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
@@ -1583,8 +1783,12 @@
       <c r="C56" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D56" s="1"/>
-      <c r="E56" s="1"/>
+      <c r="D56" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
@@ -1596,8 +1800,12 @@
       <c r="C57" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D57" s="1"/>
-      <c r="E57" s="1"/>
+      <c r="D57" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
@@ -1609,8 +1817,12 @@
       <c r="C58" s="1">
         <v>1</v>
       </c>
-      <c r="D58" s="1"/>
-      <c r="E58" s="1"/>
+      <c r="D58" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
@@ -1622,8 +1834,12 @@
       <c r="C59" s="1">
         <v>1</v>
       </c>
-      <c r="D59" s="1"/>
-      <c r="E59" s="1"/>
+      <c r="D59" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
@@ -1635,8 +1851,12 @@
       <c r="C60" s="1">
         <v>1</v>
       </c>
-      <c r="D60" s="1"/>
-      <c r="E60" s="1"/>
+      <c r="D60" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
@@ -1648,8 +1868,12 @@
       <c r="C61" s="1">
         <v>1</v>
       </c>
-      <c r="D61" s="1"/>
-      <c r="E61" s="1"/>
+      <c r="D61" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
@@ -1661,8 +1885,12 @@
       <c r="C62" s="1">
         <v>1</v>
       </c>
-      <c r="D62" s="1"/>
-      <c r="E62" s="1"/>
+      <c r="D62" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
@@ -1674,8 +1902,12 @@
       <c r="C63" s="1">
         <v>1</v>
       </c>
-      <c r="D63" s="1"/>
-      <c r="E63" s="1"/>
+      <c r="D63" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
@@ -1687,8 +1919,12 @@
       <c r="C64" s="1">
         <v>1</v>
       </c>
-      <c r="D64" s="1"/>
-      <c r="E64" s="1"/>
+      <c r="D64" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
@@ -1700,8 +1936,12 @@
       <c r="C65" s="1">
         <v>1</v>
       </c>
-      <c r="D65" s="1"/>
-      <c r="E65" s="1"/>
+      <c r="D65" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
@@ -1713,8 +1953,12 @@
       <c r="C66" s="1">
         <v>1</v>
       </c>
-      <c r="D66" s="1"/>
-      <c r="E66" s="1"/>
+      <c r="D66" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
@@ -1729,7 +1973,9 @@
       <c r="D67" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E67" s="1"/>
+      <c r="E67" s="1" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
@@ -1741,8 +1987,12 @@
       <c r="C68" s="1">
         <v>9</v>
       </c>
-      <c r="D68" s="1"/>
-      <c r="E68" s="1"/>
+      <c r="D68" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
@@ -1757,7 +2007,9 @@
       <c r="D69" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E69" s="1"/>
+      <c r="E69" s="1" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
@@ -1772,7 +2024,9 @@
       <c r="D70" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E70" s="1"/>
+      <c r="E70" s="1" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
@@ -1787,7 +2041,9 @@
       <c r="D71" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E71" s="1"/>
+      <c r="E71" s="1" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
@@ -1799,8 +2055,12 @@
       <c r="C72" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D72" s="1"/>
-      <c r="E72" s="1"/>
+      <c r="D72" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
@@ -1812,8 +2072,12 @@
       <c r="C73" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D73" s="1"/>
-      <c r="E73" s="1"/>
+      <c r="D73" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
@@ -1825,8 +2089,12 @@
       <c r="C74" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D74" s="1"/>
-      <c r="E74" s="1"/>
+      <c r="D74" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
@@ -1838,8 +2106,12 @@
       <c r="C75" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D75" s="1"/>
-      <c r="E75" s="1"/>
+      <c r="D75" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
@@ -1851,8 +2123,12 @@
       <c r="C76" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D76" s="1"/>
-      <c r="E76" s="1"/>
+      <c r="D76" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
@@ -1864,8 +2140,12 @@
       <c r="C77" s="1">
         <v>1</v>
       </c>
-      <c r="D77" s="1"/>
-      <c r="E77" s="1"/>
+      <c r="D77" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
@@ -1877,8 +2157,12 @@
       <c r="C78" s="1">
         <v>1</v>
       </c>
-      <c r="D78" s="1"/>
-      <c r="E78" s="1"/>
+      <c r="D78" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
@@ -1890,8 +2174,12 @@
       <c r="C79" s="1">
         <v>1</v>
       </c>
-      <c r="D79" s="1"/>
-      <c r="E79" s="1"/>
+      <c r="D79" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
@@ -1903,8 +2191,12 @@
       <c r="C80" s="1">
         <v>1</v>
       </c>
-      <c r="D80" s="1"/>
-      <c r="E80" s="1"/>
+      <c r="D80" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
@@ -1916,8 +2208,12 @@
       <c r="C81" s="1">
         <v>1</v>
       </c>
-      <c r="D81" s="1"/>
-      <c r="E81" s="1"/>
+      <c r="D81" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
@@ -1929,8 +2225,12 @@
       <c r="C82" s="1">
         <v>1</v>
       </c>
-      <c r="D82" s="1"/>
-      <c r="E82" s="1"/>
+      <c r="D82" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
@@ -1942,8 +2242,12 @@
       <c r="C83" s="1">
         <v>1</v>
       </c>
-      <c r="D83" s="1"/>
-      <c r="E83" s="1"/>
+      <c r="D83" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
@@ -1955,8 +2259,12 @@
       <c r="C84" s="1">
         <v>1</v>
       </c>
-      <c r="D84" s="1"/>
-      <c r="E84" s="1"/>
+      <c r="D84" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
@@ -1968,8 +2276,12 @@
       <c r="C85" s="1">
         <v>5</v>
       </c>
-      <c r="D85" s="1"/>
-      <c r="E85" s="1"/>
+      <c r="D85" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
@@ -1984,7 +2296,9 @@
       <c r="D86" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="E86" s="1"/>
+      <c r="E86" s="1" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
@@ -1999,7 +2313,9 @@
       <c r="D87" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="E87" s="1"/>
+      <c r="E87" s="1" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
@@ -2011,8 +2327,12 @@
       <c r="C88" s="1">
         <v>9</v>
       </c>
-      <c r="D88" s="1"/>
-      <c r="E88" s="1"/>
+      <c r="D88" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
@@ -2027,7 +2347,9 @@
       <c r="D89" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="E89" s="1"/>
+      <c r="E89" s="1" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
@@ -2042,7 +2364,9 @@
       <c r="D90" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="E90" s="1"/>
+      <c r="E90" s="1" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
@@ -2054,8 +2378,12 @@
       <c r="C91" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D91" s="1"/>
-      <c r="E91" s="1"/>
+      <c r="D91" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
@@ -2067,8 +2395,12 @@
       <c r="C92" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D92" s="1"/>
-      <c r="E92" s="1"/>
+      <c r="D92" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
@@ -2080,8 +2412,12 @@
       <c r="C93" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D93" s="1"/>
-      <c r="E93" s="1"/>
+      <c r="D93" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
@@ -2093,8 +2429,12 @@
       <c r="C94" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D94" s="1"/>
-      <c r="E94" s="1"/>
+      <c r="D94" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
@@ -2109,7 +2449,9 @@
       <c r="D95" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="E95" s="1"/>
+      <c r="E95" s="1" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
@@ -2121,8 +2463,12 @@
       <c r="C96" s="1">
         <v>1</v>
       </c>
-      <c r="D96" s="1"/>
-      <c r="E96" s="1"/>
+      <c r="D96" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
@@ -2134,8 +2480,12 @@
       <c r="C97" s="1">
         <v>1</v>
       </c>
-      <c r="D97" s="1"/>
-      <c r="E97" s="1"/>
+      <c r="D97" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
@@ -2147,8 +2497,12 @@
       <c r="C98" s="1">
         <v>1</v>
       </c>
-      <c r="D98" s="1"/>
-      <c r="E98" s="1"/>
+      <c r="D98" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
@@ -2160,8 +2514,12 @@
       <c r="C99" s="1">
         <v>1</v>
       </c>
-      <c r="D99" s="1"/>
-      <c r="E99" s="1"/>
+      <c r="D99" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
@@ -2173,8 +2531,12 @@
       <c r="C100" s="1">
         <v>1</v>
       </c>
-      <c r="D100" s="1"/>
-      <c r="E100" s="1"/>
+      <c r="D100" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
@@ -2186,8 +2548,12 @@
       <c r="C101" s="1">
         <v>1</v>
       </c>
-      <c r="D101" s="1"/>
-      <c r="E101" s="1"/>
+      <c r="D101" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
@@ -2202,7 +2568,9 @@
       <c r="D102" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="E102" s="1"/>
+      <c r="E102" s="1" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
@@ -2214,8 +2582,12 @@
       <c r="C103" s="1">
         <v>5</v>
       </c>
-      <c r="D103" s="1"/>
-      <c r="E103" s="1"/>
+      <c r="D103" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
@@ -2230,7 +2602,9 @@
       <c r="D104" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="E104" s="1"/>
+      <c r="E104" s="1" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
@@ -2245,7 +2619,9 @@
       <c r="D105" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="E105" s="1"/>
+      <c r="E105" s="1" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
@@ -2257,8 +2633,12 @@
       <c r="C106" s="1">
         <v>9</v>
       </c>
-      <c r="D106" s="1"/>
-      <c r="E106" s="1"/>
+      <c r="D106" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
@@ -2271,7 +2651,9 @@
       <c r="D107" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="E107" s="1"/>
+      <c r="E107" s="1" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
@@ -2283,8 +2665,12 @@
       <c r="C108" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="D108" s="1"/>
-      <c r="E108" s="1"/>
+      <c r="D108" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
@@ -2296,8 +2682,12 @@
       <c r="C109" s="1">
         <v>5</v>
       </c>
-      <c r="D109" s="1"/>
-      <c r="E109" s="1"/>
+      <c r="D109" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
@@ -2309,8 +2699,12 @@
       <c r="C110" s="1">
         <v>5</v>
       </c>
-      <c r="D110" s="1"/>
-      <c r="E110" s="1"/>
+      <c r="D110" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
@@ -2322,8 +2716,12 @@
       <c r="C111" s="1">
         <v>1</v>
       </c>
-      <c r="D111" s="1"/>
-      <c r="E111" s="1"/>
+      <c r="D111" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
@@ -2335,8 +2733,12 @@
       <c r="C112" s="1">
         <v>1</v>
       </c>
-      <c r="D112" s="1"/>
-      <c r="E112" s="1"/>
+      <c r="D112" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
@@ -2351,7 +2753,9 @@
       <c r="D113" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="E113" s="1"/>
+      <c r="E113" s="1" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
@@ -2363,8 +2767,12 @@
       <c r="C114" s="1">
         <v>1</v>
       </c>
-      <c r="D114" s="1"/>
-      <c r="E114" s="1"/>
+      <c r="D114" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
@@ -2376,8 +2784,12 @@
       <c r="C115" s="1">
         <v>1</v>
       </c>
-      <c r="D115" s="1"/>
-      <c r="E115" s="1"/>
+      <c r="D115" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
@@ -2392,7 +2804,9 @@
       <c r="D116" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="E116" s="1"/>
+      <c r="E116" s="1" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
@@ -2404,8 +2818,12 @@
       <c r="C117" s="1">
         <v>5</v>
       </c>
-      <c r="D117" s="1"/>
-      <c r="E117" s="1"/>
+      <c r="D117" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
@@ -2420,7 +2838,9 @@
       <c r="D118" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="E118" s="1"/>
+      <c r="E118" s="1" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
@@ -2435,7 +2855,9 @@
       <c r="D119" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="E119" s="1"/>
+      <c r="E119" s="1" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
@@ -2450,7 +2872,9 @@
       <c r="D120" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="E120" s="1"/>
+      <c r="E120" s="1" t="s">
+        <v>136</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
